--- a/v2/budget/budget.xlsx
+++ b/v2/budget/budget.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
   <si>
     <t xml:space="preserve">TOTAL DEL PROJECTE (automàtic)</t>
   </si>
@@ -147,6 +147,24 @@
   </si>
   <si>
     <t xml:space="preserve">https://tienda.bricogeek.com/robotica/995-rueda-loca-pl%C3%A1stico-abs-34.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teensy 3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRO-0091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tienda.bricogeek.com/teensy/549-teensy-32.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor micro metal 10:1 HP con eje extendido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCM-????</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No disponible en la web. Encargo. 15 días aprox. </t>
   </si>
   <si>
     <t xml:space="preserve">STM32</t>
@@ -166,7 +184,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-C0A];[RED]\-#,##0.00\ [$€-C0A]"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -211,19 +229,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="12"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -380,11 +385,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -421,10 +422,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -441,23 +438,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -469,15 +454,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -497,15 +482,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -513,15 +494,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -529,10 +510,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -541,7 +518,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -625,455 +602,482 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="126.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="10.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="10.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="n">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="n">
         <f aca="false">'es.farnell.com'!E15+'www.diotronic.com'!E15+'tienda.bricogeek.com'!F20+'www.electan.com'!E15+others!E15</f>
-        <v>218.58</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+        <v>334.58</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="9" t="n">
         <v>4.95</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F7" s="12" t="n">
+      <c r="F7" s="10" t="n">
         <f aca="false">D7*E7</f>
         <v>14.85</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D8" s="9" t="n">
         <v>8.75</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F8" s="12" t="n">
+      <c r="F8" s="10" t="n">
         <f aca="false">D8*E8</f>
         <v>17.5</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="9" t="n">
         <v>13.2</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="12" t="n">
+      <c r="F9" s="10" t="n">
         <f aca="false">D9*E9</f>
         <v>26.4</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="9" t="n">
         <v>3.95</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="12" t="n">
+      <c r="F10" s="10" t="n">
         <f aca="false">D10*E10</f>
         <v>7.9</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="9" t="n">
         <v>13.9</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="12" t="n">
+      <c r="F11" s="10" t="n">
         <f aca="false">D11*E11</f>
         <v>13.9</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="11" t="n">
+      <c r="D12" s="9" t="n">
         <v>4.5</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F12" s="12" t="n">
+      <c r="F12" s="10" t="n">
         <f aca="false">D12*E12</f>
         <v>13.5</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="11" t="n">
+      <c r="D13" s="9" t="n">
         <v>1.6</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="12" t="n">
+      <c r="F13" s="10" t="n">
         <f aca="false">D13*E13</f>
         <v>1.6</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="n">
+      <c r="A14" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="17" t="n">
+      <c r="D14" s="13" t="n">
         <v>15.9</v>
       </c>
-      <c r="E14" s="16" t="n">
+      <c r="E14" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="F14" s="12" t="n">
+      <c r="F14" s="10" t="n">
         <f aca="false">D14*E14</f>
         <v>15.9</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="11" t="n">
+      <c r="D15" s="9" t="n">
         <v>5.9</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F15" s="12" t="n">
+      <c r="F15" s="10" t="n">
         <f aca="false">D15*E15</f>
         <v>5.9</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="11" t="n">
+      <c r="D16" s="9" t="n">
         <v>10.7</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F16" s="12" t="n">
+      <c r="F16" s="10" t="n">
         <f aca="false">D16*E16</f>
         <v>21.4</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="11" t="n">
+      <c r="D17" s="9" t="n">
         <v>3.95</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F17" s="20" t="n">
+      <c r="F17" s="15" t="n">
         <f aca="false">D17*E17</f>
         <v>3.95</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="A18" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="16" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="15" t="n">
+        <f aca="false">D18*E18</f>
+        <v>22.4</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="A19" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="16" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" s="15" t="n">
+        <f aca="false">D19*E19</f>
+        <v>93.6</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="24" t="n">
+      <c r="F20" s="19" t="n">
         <f aca="false">SUM(F7:F19)</f>
-        <v>142.8</v>
-      </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+        <v>258.8</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G7" r:id="rId1" display="http://tienda.bricogeek.com/controladores-motores/999-controlador-de-motores-tb6612fng.html"/>
-    <hyperlink ref="G8" r:id="rId2" display="https://tienda.bricogeek.com/accesorios-motores/833-kit-encoders-para-motores-micro-metal.html"/>
+    <hyperlink ref="G8" r:id="rId2" display="https://tienda.bricogeek.com/accesorios-motores/833-kit-encoders-para-motores-micro-metal.html "/>
     <hyperlink ref="G9" r:id="rId3" display="http://tienda.bricogeek.com/motores/113-motor-micro-metal-lp-con-reductora-10-1.html"/>
     <hyperlink ref="G10" r:id="rId4" display="https://tienda.bricogeek.com/ruedas-robotica/1008-rueda-solarbotics-rw2i.html"/>
     <hyperlink ref="G11" r:id="rId5" display="http://tienda.bricogeek.com/conversores-serie-usb/295-conversor-serie-usb-ftdi232.html"/>
@@ -1107,216 +1111,209 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="10.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="10.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="25" t="n">
+      <c r="B2" s="3"/>
+      <c r="C2" s="20" t="n">
         <f aca="false">'es.farnell.com'!E15+'www.diotronic.com'!E15+'tienda.bricogeek.com'!F20+'www.electan.com'!E15</f>
-        <v>142.8</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+        <v>258.8</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" s="10" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27" t="n">
+      <c r="A14" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" s="31" customFormat="true" ht="22.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" s="25" customFormat="true" ht="22.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="29" t="n">
+      <c r="E15" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1342,214 +1339,207 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="10.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="10.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="25" t="n">
+      <c r="B2" s="3"/>
+      <c r="C2" s="20" t="n">
         <f aca="false">'es.farnell.com'!E15+'www.diotronic.com'!E15+'tienda.bricogeek.com'!F20+'www.electan.com'!E15</f>
-        <v>142.8</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+        <v>258.8</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" s="10" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27" t="n">
+      <c r="A14" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" s="31" customFormat="true" ht="22.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" s="25" customFormat="true" ht="22.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
+      <c r="E15" s="24"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1583,202 +1573,202 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="25" t="n">
+      <c r="B2" s="3"/>
+      <c r="C2" s="20" t="n">
         <f aca="false">'es.farnell.com'!E15+'www.diotronic.com'!E15+'tienda.bricogeek.com'!F20+'www.electan.com'!E15</f>
-        <v>142.8</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+        <v>258.8</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27" t="n">
+      <c r="A14" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" s="30" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" s="25" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="35" t="n">
+      <c r="E15" s="29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1814,222 +1804,222 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="n">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="n">
         <f aca="false">'es.farnell.com'!E15+'www.diotronic.com'!E15+'tienda.bricogeek.com'!F20+'www.electan.com'!E15+others!E15</f>
-        <v>218.58</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+        <v>334.58</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="11" t="n">
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="9" t="n">
         <v>7.99</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E7" s="36" t="n">
+      <c r="E7" s="30" t="n">
         <f aca="false">C7*D7</f>
         <v>15.98</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="F7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="37" t="n">
+      <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="9" t="n">
         <v>14.95</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E8" s="36" t="n">
+      <c r="E8" s="30" t="n">
         <f aca="false">C8*D8</f>
         <v>59.8</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27" t="n">
+      <c r="A14" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" s="30" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" s="25" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="40" t="n">
+      <c r="E15" s="33" t="n">
         <f aca="false">SUM(E7:E14)</f>
         <v>75.78</v>
       </c>
